--- a/data/kec.kra kuliner.xlsx
+++ b/data/kec.kra kuliner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB75B0-A5E2-41A5-BB9F-48153975F1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1F0CAD-0627-427B-AE32-5EDCA17E3F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EDF38F25-C305-4850-8566-E632A20AB8E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="290">
   <si>
     <t>https://www.google.com/maps/place/Soto+Karang+%28Kuliner+Khas+Karanganyar%29/data=!4m7!3m6!1s0x2e7a187ac849d685:0x7b82a8a19ecd9dd2!8m2!3d-7.593423!4d110.940326!16s%2Fg%2F11c3kqhhml!19sChIJhdZJyHoYei4R0p3NnqGogns?authuser=0&amp;hl=id&amp;rclk=1</t>
   </si>
@@ -57,9 +57,6 @@
     <t>06.00-16.30</t>
   </si>
   <si>
-    <t>Soto Karang, Soto Ayam, Soto Daging</t>
-  </si>
-  <si>
     <t>Masakan Jawa</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>09.00-20.00</t>
   </si>
   <si>
-    <t>Steak Ayam, Nasi Goreng Seafood</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/place/Waroeng+%22Batu+Jamus%22/data=!4m7!3m6!1s0x2e7a2275c1dbab51:0x856cb692cc176551!8m2!3d-7.6045661!4d110.9727334!16s%2Fg%2F1hm5dx76z!19sChIJUavbwXUiei4RUWUXzJK2bIU?authuser=0&amp;hl=id&amp;rclk=1</t>
   </si>
   <si>
@@ -162,607 +156,757 @@
     <t>09.00-22.00</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/place/Solo+Steak+Karanganyar+%22+3+%22/data=!4m7!3m6!1s0x2e7a198cc26ed441:0xd9fccb54d082ec97!8m2!3d-7.5937457!4d110.9416656!16s%2Fg%2F11fqwx3dnn!19sChIJQdRuwowZei4Rl-yC0FTL_Nk?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Solo Steak Karanganyar " 3 "</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>10.00-22.00</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Waroeng+Spesial+Sambal+SS+Karanganyar/data=!4m7!3m6!1s0x2e7a189c83172753:0x794bb3036b63f389!8m2!3d-7.6103545!4d110.9481111!16s%2Fg%2F1pzwj_71g!19sChIJUycXg5wYei4RifNjawOzS3k?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Waroeng Spesial Sambal SS Karanganyar</t>
+  </si>
+  <si>
+    <t>10.00-20.00, Jum'at 12.30-20.00</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/GREEN+RESTO+KARANGANYAR/data=!4m7!3m6!1s0x2e7a1972b9435349:0xb4fa993096d8ad08!8m2!3d-7.6016125!4d110.9661406!16s%2Fg%2F11j5ql4bng!19sChIJSVNDuXIZei4RCK3YljCZ-rQ?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>GREEN RESTO KARANGANYAR</t>
+  </si>
+  <si>
+    <t>09.00-21.00</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/SFA+Steak+%26+Resto+Karanganyar/data=!4m7!3m6!1s0x2e7a187a48805d53:0xbf5343aa38bb6318!8m2!3d-7.596716!4d110.942712!16s%2Fg%2F11b620xwp_!19sChIJU12ASHoYei4RGGO7OKpDU78?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>SFA Steak &amp; Resto Karanganyar</t>
+  </si>
+  <si>
+    <t>09.00-17.00</t>
+  </si>
+  <si>
+    <t>Sate Kambing, Gulai, Tengkleng, Tongseng, Sate Buntel</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ayam+Panggang+Dian+Rahma+Karanganyar/data=!4m7!3m6!1s0x2e7a18819ada8aab:0xf1871bef1b020f86!8m2!3d-7.6003272!4d110.9557825!16s%2Fg%2F11b723xd_l!19sChIJq4ramoEYei4Rhg8CG-8bh_E?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Ayam Panggang Dian Rahma Karanganyar</t>
+  </si>
+  <si>
+    <t>08.00-17.00</t>
+  </si>
+  <si>
+    <t>Ayam Panggang, Ayam Bakar</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Telaga+Rindu+Resto+Karanganyar/data=!4m7!3m6!1s0x2e7a228732654ce7:0xd0b9b5ffee827a3b!8m2!3d-7.6079528!4d110.9485238!16s%2Fg%2F11dfj9zdrh!19sChIJ50xlMociei4RO3qC7v-1udA?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Telaga Rindu Resto Karanganyar</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>09.15-21.00</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Harjospace+RESTO+and+COFFEE/data=!4m7!3m6!1s0x2e7a19351f325707:0xd44259f1472796b0!8m2!3d-7.5913434!4d110.9338076!16s%2Fg%2F11qsdb8wpw!19sChIJB1cyHzUZei4RsJYnR_FZQtQ?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Harjospace RESTO and COFFEE</t>
+  </si>
+  <si>
+    <t>10.00-23.00</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Kopi+Oemah+Tentrem/data=!4m7!3m6!1s0x2e7a19f075e85feb:0x8ada1b8374679c8f!8m2!3d-7.5955001!4d110.9645195!16s%2Fg%2F11fs__bs_n!19sChIJ61_odfAZei4Rj5xndIMb2oo?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Kopi Oemah Tentrem</t>
+  </si>
+  <si>
+    <t>16.00-23.00, Selasa Tutup</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ayam+%26+Bebek+Goreng+Mas+Anto/data=!4m7!3m6!1s0x2e7a19344c517611:0xafb28ad23da0d9b8!8m2!3d-7.590904!4d110.9323854!16s%2Fg%2F11syx1jc7n!19sChIJEXZRTDQZei4RuNmgPdKKsq8?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Ayam &amp; Bebek Goreng Mas Anto</t>
+  </si>
+  <si>
+    <t>10.30-20.30</t>
+  </si>
+  <si>
+    <t>Ayam Goreng Kremes, Bebek Goreng</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Rica+Menthok+Pak+Man+dan+Sambal+Belut/data=!4m7!3m6!1s0x2e7a19e7d55812b7:0x4ba514c790eb95e1!8m2!3d-7.5964154!4d110.9355963!16s%2Fg%2F11sdxh98db!19sChIJtxJY1ecZei4R4ZXrkMcUpUs?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Rica Menthok Pak Man dan Sambal Belut</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Hick+Gaul+Pak+Mul/data=!4m7!3m6!1s0x2e7a220c7949eed3:0xd69d1a88f224494f!8m2!3d-7.6066128!4d110.9778958!16s%2Fg%2F11b6xl1yp2!19sChIJ0-5JeQwiei4RT0kk8ogandY?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Hick Gaul Pak Mul</t>
+  </si>
+  <si>
+    <t>Angkringan, Masakan Jawa, Soto, Kare</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Rumah+Makan+Dayak/data=!4m7!3m6!1s0x2e7a187c8510b64b:0xe36ac4991042c2b5!8m2!3d-7.594639!4d110.945216!16s%2Fg%2F11cmtsl8d3!19sChIJS7YQhXwYei4RtcJCEJnEauM?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Rumah Makan Dayak</t>
+  </si>
+  <si>
+    <t>08.00-17.00, Minggu 08.00-16.00</t>
+  </si>
+  <si>
+    <t>Kare, Soto, Pecel</t>
+  </si>
+  <si>
+    <t>Tahu Kupat</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/WARUNG+TAHU+KUPAT+%22SIDO+MAMPIR%22/data=!4m7!3m6!1s0x2e7a187b7c428467:0x74cc4a5c36cd384c!8m2!3d-7.5948467!4d110.9444723!16s%2Fg%2F11b6x7czj9!19sChIJZ4RCfHsYei4RTDjNNlxKzHQ?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>WARUNG TAHU KUPAT "SIDO MAMPIR"</t>
+  </si>
+  <si>
+    <t>07.00-16.00</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Omah+Sendang+IBC/data=!4m7!3m6!1s0x2e7a190748172e05:0xb0042b516a5fd60e!8m2!3d-7.593311!4d110.9283331!16s%2Fg%2F11j909vmlt!19sChIJBS4XSAcZei4RDtZfalErBLA?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Omah Sendang IBC</t>
+  </si>
+  <si>
+    <t>10.00-21.00</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Angkringan+eNHa/data=!4m7!3m6!1s0x2e7a199f94f85ddf:0x42317cf47932f1fa!8m2!3d-7.6006092!4d110.9625921!16s%2Fg%2F11q22n9g9p!19sChIJ3134lJ8Zei4R-vEyefR8MUI?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Angkringan eNHa</t>
+  </si>
+  <si>
+    <t>08:00-23:30</t>
+  </si>
+  <si>
+    <t>Mie Ayam, Bakso</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Seblak+BESTie+karanganyar/data=!4m7!3m6!1s0x2e7a19ec0b6b9aad:0x87110bc6a87691e2!8m2!3d-7.5961254!4d110.9376784!16s%2Fg%2F11lnlfqq9j!19sChIJrZprC-wZei4R4pF2qMYLEYc?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Seblak BESTie karanganyar</t>
+  </si>
+  <si>
+    <t>Seblak</t>
+  </si>
+  <si>
+    <t>12.00-21.00</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Bakso+Inter+Milan/data=!4m7!3m6!1s0x2e7a220b3bd193c1:0xd96e52dec8cee414!8m2!3d-7.6048749!4d110.9755549!16s%2Fg%2F1hm26hwk2!19sChIJwZPROwsiei4RFOTOyN5Sbtk?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Bakso Inter Milan</t>
+  </si>
+  <si>
+    <t>Kakap Bakar, Capcay, Nila Goreng</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ayam+Kampung+Goreng+Mbah+Karto+TEMBEL+3/data=!4m7!3m6!1s0x2e7a220c7e4978b7:0x4682fd3cc8c70919!8m2!3d-7.6067279!4d110.9772144!16s%2Fg%2F11cnwjyvml!19sChIJt3hJfgwiei4RGQnHyDz9gkY?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Ayam Kampung Goreng Mbah Karto TEMBEL 3</t>
+  </si>
+  <si>
+    <t>08.00-19.00</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Ulasan</t>
+  </si>
+  <si>
+    <t>Gambar</t>
+  </si>
+  <si>
+    <t>soto_karang.jpg</t>
+  </si>
+  <si>
+    <t>pak_pur.jpg</t>
+  </si>
+  <si>
+    <t>Nama_Tempat</t>
+  </si>
+  <si>
+    <t>Menu_Spesial</t>
+  </si>
+  <si>
+    <t>Jam_Buka</t>
+  </si>
+  <si>
+    <t>Sop Iga, Iga Bakar, Gurame Asam Manis, Wedang Uwuh</t>
+  </si>
+  <si>
+    <t>purnama.jpg</t>
+  </si>
+  <si>
+    <t>maf.jpg</t>
+  </si>
+  <si>
+    <t>jamus.jpg</t>
+  </si>
+  <si>
+    <t>abg.jpg</t>
+  </si>
+  <si>
+    <t>green.jpg</t>
+  </si>
+  <si>
+    <t>telaga.jpg</t>
+  </si>
+  <si>
+    <t>solo_steak.jpg</t>
+  </si>
+  <si>
+    <t>ss.jpg</t>
+  </si>
+  <si>
+    <t>sfa.jpg</t>
+  </si>
+  <si>
+    <t>dian.jpg</t>
+  </si>
+  <si>
+    <t>dayak.jpg</t>
+  </si>
+  <si>
+    <t>kupat.jpg</t>
+  </si>
+  <si>
+    <t>harjo.jpg</t>
+  </si>
+  <si>
+    <t>oemah.jpg</t>
+  </si>
+  <si>
+    <t>bebek.jpg</t>
+  </si>
+  <si>
+    <t>man.jpg</t>
+  </si>
+  <si>
+    <t>seblak.jpg</t>
+  </si>
+  <si>
+    <t>dwi.jpg</t>
+  </si>
+  <si>
+    <t>gaul.jpg</t>
+  </si>
+  <si>
+    <t>ibc.jpg</t>
+  </si>
+  <si>
+    <t>barokah.jpg</t>
+  </si>
+  <si>
+    <t>enha.jpg</t>
+  </si>
+  <si>
+    <t>milan.jpg</t>
+  </si>
+  <si>
+    <t>tembel.jpg</t>
+  </si>
+  <si>
+    <t>warung_idjo.jpg</t>
+  </si>
+  <si>
+    <t>timlo.jpg</t>
+  </si>
+  <si>
+    <t>rm_indah.jpg</t>
+  </si>
+  <si>
+    <t>bu_medi.jpg</t>
+  </si>
+  <si>
+    <t>VinZ Coffee &amp; Eatery</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/VinZ+Coffee+%26+Eatery/data=!4m7!3m6!1s0x2e7a194c01b444b3:0xf3ad77137dfd00b4!8m2!3d-7.5922372!4d110.9371119!16s%2Fg%2F11y7ctndwr!19sChIJs0S0AUwZei4RtAD9fRN3rfM?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>vinz.jpg</t>
+  </si>
+  <si>
+    <t>Duor Coffee</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Duor+Coffee/data=!4m7!3m6!1s0x2e7a199cecb67f4d:0x6b2c48cce9c7c574!8m2!3d-7.5926169!4d110.9366266!16s%2Fg%2F11stwymcqp!19sChIJTX-27JwZei4RdMXH6cxILGs?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>07.00-00.00</t>
+  </si>
+  <si>
+    <t>duor.jpg</t>
+  </si>
+  <si>
+    <t>Pawon Ayu Resto Karanganyar</t>
+  </si>
+  <si>
+    <t>Bebek Goreng , Ayam Goreng Kampung</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Pawon+Ayu+Resto+Karanganyar/data=!4m7!3m6!1s0x2e7a19abd1e2cc7f:0x7959717634a36e04!8m2!3d-7.5910894!4d110.9315411!16s%2Fg%2F11lc9wr7_2!19sChIJf8zi0asZei4RBG6jNHZxWXk?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>10.00-21.30</t>
+  </si>
+  <si>
+    <t>pawon.jpg</t>
+  </si>
+  <si>
+    <t>RESTO BALI PARI</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/RESTO+BALI+PARI/data=!4m7!3m6!1s0x2e7a1936a5495239:0x60b4567231c66917!8m2!3d-7.5931964!4d110.9655372!16s%2Fg%2F11sjlnv38w!19sChIJOVJJpTYZei4RF2nGMXJWtGA?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>pari.jpg</t>
+  </si>
+  <si>
+    <t>Rumah MAKAN Apung SURAMADU 2</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Rumah+MAKAN+Apung+SURAMADU+2/data=!4m7!3m6!1s0x2e7a237096fe960d:0x29a441188b7cd921!8m2!3d-7.6088352!4d110.9841741!16s%2Fg%2F11krcbz61w!19sChIJDZb-lnAjei4RIdl8ixhBpCk?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>09.30-21.00</t>
+  </si>
+  <si>
+    <t>apung.jpg</t>
+  </si>
+  <si>
+    <t>de Goedang Resto &amp; Coffee</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/de+Goedang+Resto+%26+Coffee/data=!4m7!3m6!1s0x2e7a235feab21c31:0xa23b452a5492360d!8m2!3d-7.608078!4d110.9808443!16s%2Fg%2F11pf97zbqc!19sChIJMRyy6l8jei4RDTaSVCpFO6I?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>11.00-21.00</t>
+  </si>
+  <si>
+    <t>Kepala Manyu, Kopi Susu, Kepala Sapi, Sop Iga</t>
+  </si>
+  <si>
+    <t>Ayam Goreng Mbak Mul</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ayam+Goreng+Mbak+Mul/data=!4m7!3m6!1s0x2e7a23268c9ecdf3:0x21d917b1bd5e0f9a!8m2!3d-7.6078815!4d110.9813933!16s%2Fg%2F11h2jpndb7!19sChIJ882ejCYjei4Rmg9evbEX2SE?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>mul.jpg</t>
+  </si>
+  <si>
+    <t>08.00-20.00</t>
+  </si>
+  <si>
+    <t>Kampoeng Seafood Bejen</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Kampoeng+Seafood+Bejen/data=!4m7!3m6!1s0x2e7a230055ccea67:0xf1f468e0d62822e!8m2!3d-7.6026216!4d110.9690199!16s%2Fg%2F11lmkc23pp!19sChIJZ-rMVQAjei4RLoJiDY5GHw8?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>11.00-23.00</t>
+  </si>
+  <si>
+    <t>kampoeng.jpg</t>
+  </si>
+  <si>
+    <t>Gurame Asam Manis, Kepiting Saus Tiram, Cumi Saus Padang, Kerang Saus Padang</t>
+  </si>
+  <si>
+    <t>Me BESARi</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Me+BESARi/data=!4m7!3m6!1s0x2e7a195e09d44025:0x3187ac5b6454271e!8m2!3d-7.595878!4d110.971625!16s%2Fg%2F11k9fj2q1y!19sChIJJUDUCV4Zei4RHidUZFushzE?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>09.00-21.30</t>
+  </si>
+  <si>
+    <t>besari.jpg</t>
+  </si>
+  <si>
+    <t>Mie Gacoan Karanganyar</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Mie+Gacoan+Karanganyar/data=!4m7!3m6!1s0x2e7a19003ada65d5:0x6627e031e1063eae!8m2!3d-7.6009341!4d110.9636806!16s%2Fg%2F11x22xc20w!19sChIJ1WXaOgAZei4Rrj4G4THgJ2Y?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>08.00-23.00</t>
+  </si>
+  <si>
+    <t>Mie Pedas</t>
+  </si>
+  <si>
+    <t>gacoan.jpg</t>
+  </si>
+  <si>
+    <t>AMMANEENA Coffee, Eatery &amp; Catering</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/AMMANEENA+Coffee,+Eatery+%26+Catering/data=!4m7!3m6!1s0x2e7a190c0471773f:0x376f9e8413faaa!8m2!3d-7.5926643!4d110.9382523!16s%2Fg%2F11vc73z3q1!19sChIJP3dxBAwZei4RqvoThJ5vNwA?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>ammaneena.jpg</t>
+  </si>
+  <si>
+    <t>Heika Kopi Karanganyar</t>
+  </si>
+  <si>
+    <t>Lenskopi karanganyar</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Lenskopi+karanganyar/data=!4m7!3m6!1s0x2e7a191b1746023f:0xd1ebec432d2303da!8m2!3d-7.5962664!4d110.9834795!16s%2Fg%2F11nmlhm31p!19sChIJPwJGFxsZei4R2gMjLUPs69E?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Heika+Kopi+Karanganyar/data=!4m7!3m6!1s0x2e7a19501c10b3f3:0x7adb6a14603c5bcb!8m2!3d-7.5967514!4d110.9423211!16s%2Fg%2F11lgmvn1kg!19sChIJ87MQHFAZei4Ry1s8YBRq23o?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>10.00-23.00. Jum'at dan Sabtu 10.00-00.00</t>
+  </si>
+  <si>
+    <t>heika.jpg</t>
+  </si>
+  <si>
+    <t>lenskopi.jpg</t>
+  </si>
+  <si>
+    <t>FruitHub Juice Bar</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/FruitHub+Juice+Bar/data=!4m7!3m6!1s0x2e7a19b82a145af3:0x93bb46df42ccb9f!8m2!3d-7.5980822!4d110.9460832!16s%2Fg%2F11s7s411gq!19sChIJ81oUKrgZei4Rn8ss9G20Owk?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Jus Buah, Salad Buah, Salad Wrap</t>
+  </si>
+  <si>
+    <t>fruithub.jpg</t>
+  </si>
+  <si>
+    <t>Bakso Bonjot Mas Larso</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Bakso+Bonjot+Mas+Larso/data=!4m7!3m6!1s0x2e7a1865551cd981:0x69b98a608100ff0c!8m2!3d-7.5928487!4d110.9386204!16s%2Fg%2F1hm4649kd!19sChIJgdkcVWUYei4RDP8AgWCKuWk?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>bonjot.jpg</t>
+  </si>
+  <si>
+    <t>Warung Soto &amp; Kare Ayam DPR</t>
+  </si>
+  <si>
+    <t>Kare, Soto</t>
+  </si>
+  <si>
+    <t>16.00-20.30. Minggu Tutup</t>
+  </si>
+  <si>
+    <t>kare.jpg</t>
+  </si>
+  <si>
+    <t>Gentong Resto &amp; Steak Karanganyar</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Gentong+Resto+%26+Steak+Karanganyar/data=!4m7!3m6!1s0x2e7a235a02eefb85:0x23922b4de13eade6!8m2!3d-7.6031559!4d110.9781582!16s%2Fg%2F11p5z7hzbb!19sChIJhfvuAlojei4R5q0-4U0rkiM?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>gentong.jpg</t>
+  </si>
+  <si>
+    <t>RM Ayam Tulang Lunak Mbak Betri</t>
+  </si>
+  <si>
+    <t>Ayam Goreng Tulang Lunak</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/RM+Ayam+Tulang+Lunak+Mbak+Betri/data=!4m7!3m6!1s0x2e7a1878e148419d:0xdbd8c99edc388a27!8m2!3d-7.6006775!4d110.9429234!16s%2Fg%2F11cjk3tyk1!19sChIJnUFI4XgYei4RJ4o43J7J2Ns?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>betri.jpg</t>
+  </si>
+  <si>
+    <t>Aneka Sambal, Masakan Nusantara</t>
+  </si>
+  <si>
+    <t>Kebon Lawuh</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Kebon+Lawuh/data=!4m7!3m6!1s0x2e7a1922bf0655f5:0x4ef708066e08060e!8m2!3d-7.6022742!4d110.9667169!16s%2Fg%2F11p_2ddzdy!19sChIJ9VUGvyIZei4RDgYIbgYI904?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Kopi Janji Jiwa Jilid 635 Karanganyar</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Kopi+Janji+Jiwa+Jilid+635+Karanganyar/data=!4m7!3m6!1s0x2e7a19667e234d73:0x22b40635ab2b4b9c!8m2!3d-7.5984438!4d110.9492198!16s%2Fg%2F11k6qzkwsw!19sChIJc00jfmYZei4RnEsrqzUGtCI?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>kebon.jpg</t>
+  </si>
+  <si>
+    <t>goeda.jpg</t>
+  </si>
+  <si>
+    <t>jani.jpg</t>
+  </si>
+  <si>
+    <t>Ayam Goreng Kampung</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Omah+Ingkung+Resto+%26+Kopi+Karanganyar/data=!4m7!3m6!1s0x2e7a194e257e8801:0xfafde0668c3e7d16!8m2!3d-7.5925785!4d110.9375979!16s%2Fg%2F11k4l03j32!19sChIJAYh-JU4Zei4RFn0-jGbg_fo?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Omah Ingkung Resto &amp; Kopi Karanganyar</t>
+  </si>
+  <si>
+    <t>ingkung.jpg</t>
+  </si>
+  <si>
+    <t>Seblak Prasmanan Lek Sul</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Seblak+Prasmanan+Lek+Sul/data=!4m7!3m6!1s0x2e7a19005540efed:0x20ce488babc6d513!8m2!3d-7.5845157!4d110.9431257!16s%2Fg%2F11vsljbrb0!19sChIJ7e9AVQAZei4RE9XGq4tIziA?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>11.00-22.00</t>
+  </si>
+  <si>
+    <t>sul.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steak </t>
+  </si>
+  <si>
+    <t>Steak</t>
+  </si>
+  <si>
+    <t>LAY'Serut ANGKRINGAN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/LAY%27Serut+ANGKRINGAN/data=!4m7!3m6!1s0x2e7a23005a7b8d29:0x5c406a55b541e7ab!8m2!3d-7.6120792!4d110.9952589!16s%2Fg%2F11rm_6ybx9!19sChIJKY17WgAjei4Rq-dBtVVqQFw?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>16.300-23.00, Selasa Tutup</t>
+  </si>
+  <si>
+    <t>lay.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Warung+Soto+%26+Kare+Ayam+DPR/data=!4m7!3m6!1s0x2e7a1882f7015851:0xf0d1c1ce5d2da6ff!8m2!3d-7.6004658!4d110.95984!16s%2Fg%2F11c2q5l8_4!19sChIJUVgB94IYei4R_6YtXc7B0fA?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Warung Pojok Pak Kino</t>
+  </si>
+  <si>
+    <t>Capcay, Tahu Kupat</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Warung+Pojok+Pak+Kino/data=!4m7!3m6!1s0x2e7a187b8a87b103:0x10ff58c4217c91ef!8m2!3d-7.5964243!4d110.9446664!16s%2Fg%2F11b6zq_b1k!19sChIJA7GHinsYei4R75F8IcRY_xA?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>08.00-19.00, Minggu Tutup</t>
+  </si>
+  <si>
+    <t>Kopi Susu, Nasi Katsu</t>
+  </si>
+  <si>
+    <t>Chicken Salted Egg, Kopi Susu</t>
+  </si>
+  <si>
+    <t>Kopi Klasik</t>
+  </si>
+  <si>
+    <t>Sate Kambing Barokah</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sate+Kambing+Barokah/data=!4m7!3m6!1s0x2e7a2286354c0dc1:0x61cda530a67f8b3a!8m2!3d-7.6115035!4d110.9474304!16s%2Fg%2F11c1s_6stw!19sChIJwQ1MNYYiei4ROot_pjClzWE?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>09.00-21.00, Jum'at Tutup</t>
+  </si>
+  <si>
+    <t>Rica Kepala, Sate Karsak, Sate Kambing, Gulai</t>
+  </si>
+  <si>
+    <t>Wedang Uwuh, Kopi Klasik, Snack</t>
+  </si>
+  <si>
+    <t>Nila Bakar, Ayam Goreng Kremes</t>
+  </si>
+  <si>
+    <t>Nila Bakar</t>
+  </si>
+  <si>
+    <t>Soto Karang</t>
+  </si>
+  <si>
+    <t>INSOMIEA Karanganyar</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/INSOMIEA+Karanganyar/data=!4m7!3m6!1s0x2e7a1935890c53ad:0xae7e01ab68e0cf9!8m2!3d-7.595444!4d110.9359909!16s%2Fg%2F11vs805vkh!19sChIJrVMMiTUZei4R-QyOthrg5wo?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>10.30-20.00</t>
+  </si>
+  <si>
+    <t>insom.jpg</t>
+  </si>
+  <si>
+    <t>Angkringan, Wedang Jahe, Pecel</t>
+  </si>
+  <si>
+    <t>kino.jpg</t>
+  </si>
+  <si>
+    <t>Angkringan, Nasi Goreng, Snack</t>
+  </si>
+  <si>
+    <t>Seblak Jaen</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Seblak+Jaen/data=!4m7!3m6!1s0x2e7a19004c367257:0xa9b3a99cba90e97d!8m2!3d-7.5994612!4d110.9435426!16s%2Fg%2F11y4lrblr5!19sChIJV3I2TAAZei4RfemQupyps6k?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>jaen.jpg</t>
+  </si>
+  <si>
+    <t>Tengkleng "Pak Kendo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengkleng, Tongseng </t>
+  </si>
+  <si>
+    <t>08.00-15.00</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Tengkleng+%22Pak+Kendo%22/data=!4m7!3m6!1s0x2e7a187cfd958399:0xc7208018d6dc1d8!8m2!3d-7.594697!4d110.947592!16s%2Fg%2F1hm3j0997!19sChIJmYOV_XwYei4R2MFtjQEIcgw?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>kendo.jpg</t>
+  </si>
+  <si>
+    <t>Steak, Ayam Bakar, Capcay</t>
+  </si>
+  <si>
+    <t>Timlo, Sop Iga, Selat, Galantin</t>
+  </si>
+  <si>
+    <t>Masakan Nusantara, Garangasem, Ayam Bakar</t>
+  </si>
+  <si>
+    <t>Bebek Goreng, Bakso, Ayam Bakar, Iga Bakar</t>
+  </si>
+  <si>
+    <t>We Got Steak Karanganyar</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/We+Got+Steak+Karanganyar/data=!4m7!3m6!1s0x2e7a197b38797f87:0x74054906fe3a02c5!8m2!3d-7.5978577!4d110.9580296!16s%2Fg%2F11md4dqv67!19sChIJh395OHsZei4RxQI6_gZJBXQ?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>wegot.jpg</t>
+  </si>
+  <si>
+    <t>Western, Steak</t>
+  </si>
+  <si>
+    <t>Ayam Goreng Kampung, Bebek Goreng</t>
+  </si>
+  <si>
+    <t>08.00-22.00</t>
+  </si>
+  <si>
+    <t>Ayam Goreng &amp; Bakar BU TUM</t>
+  </si>
+  <si>
+    <t>08.00-20.30, Sabtu &amp; Minggu 08.00-21.30</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ayam+Goreng+%26+Bakar+BU+TUM/data=!4m7!3m6!1s0x2e7a178a26e17ce5:0x83ce5817c944be03!8m2!3d-7.5797184!4d110.901018!16s%2Fg%2F11c2ntl16m!19sChIJ5XzhJooXei4RA75EyRdYzoM?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Ayam Bakar, Bebek Goreng</t>
+  </si>
+  <si>
+    <t>Bebek &amp; Ayam Kampung Mas Budi - Karanganyar</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Bebek+%26+Ayam+Kampung+Mas+Budi+-+Karanganyar/data=!4m7!3m6!1s0x2e7a19cabb6d996d:0x33c7a3ce083d0b20!8m2!3d-7.5911125!4d110.9331719!16s%2Fg%2F11l2r45zkf!19sChIJbZltu8oZei4RIAs9CM6jxzM?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Nasi Goreng, Steak, Chicken Salted Egg, Nasi Katsu</t>
+  </si>
+  <si>
+    <t>Kopi Susu, Snack, Western, Nasi Goreng</t>
+  </si>
+  <si>
+    <t>Kepala Sapi, Wedang Jahe, Nasi Goreng</t>
+  </si>
+  <si>
+    <t>Nasi Goreng, Iga Bakar, Western, Masakan Nusantara</t>
+  </si>
+  <si>
+    <t>budi.jpg</t>
+  </si>
+  <si>
+    <t>tum.jpg</t>
+  </si>
+  <si>
+    <t>Bakso, Mie Ayam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nila Goreng, Iga Bakar, Gurame Asam Manis </t>
+  </si>
+  <si>
+    <t>Bebek Bumbu Hitam, Gurame Asam Manis, Bebek Goreng</t>
+  </si>
+  <si>
     <t>Ayam Goreng Kremes, Masakan Jawa</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Solo+Steak+Karanganyar+%22+3+%22/data=!4m7!3m6!1s0x2e7a198cc26ed441:0xd9fccb54d082ec97!8m2!3d-7.5937457!4d110.9416656!16s%2Fg%2F11fqwx3dnn!19sChIJQdRuwowZei4Rl-yC0FTL_Nk?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Solo Steak Karanganyar " 3 "</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>10.00-22.00</t>
-  </si>
-  <si>
-    <t>Steak Ayam</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Waroeng+Spesial+Sambal+SS+Karanganyar/data=!4m7!3m6!1s0x2e7a189c83172753:0x794bb3036b63f389!8m2!3d-7.6103545!4d110.9481111!16s%2Fg%2F1pzwj_71g!19sChIJUycXg5wYei4RifNjawOzS3k?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Waroeng Spesial Sambal SS Karanganyar</t>
-  </si>
-  <si>
-    <t>10.00-20.00, Jum'at 12.30-20.00</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/GREEN+RESTO+KARANGANYAR/data=!4m7!3m6!1s0x2e7a1972b9435349:0xb4fa993096d8ad08!8m2!3d-7.6016125!4d110.9661406!16s%2Fg%2F11j5ql4bng!19sChIJSVNDuXIZei4RCK3YljCZ-rQ?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>GREEN RESTO KARANGANYAR</t>
-  </si>
-  <si>
-    <t>09.00-21.00</t>
-  </si>
-  <si>
-    <t>Bebek Goreng, Ca Kangkung, Steak Ayam, Ayam Goreng</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/SFA+Steak+%26+Resto+Karanganyar/data=!4m7!3m6!1s0x2e7a187a48805d53:0xbf5343aa38bb6318!8m2!3d-7.596716!4d110.942712!16s%2Fg%2F11b620xwp_!19sChIJU12ASHoYei4RGGO7OKpDU78?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>SFA Steak &amp; Resto Karanganyar</t>
-  </si>
-  <si>
-    <t>09.00-17.00</t>
-  </si>
-  <si>
-    <t>Sate Kambing, Gulai, Tengkleng, Tongseng, Sate Buntel</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Ayam+Panggang+Dian+Rahma+Karanganyar/data=!4m7!3m6!1s0x2e7a18819ada8aab:0xf1871bef1b020f86!8m2!3d-7.6003272!4d110.9557825!16s%2Fg%2F11b723xd_l!19sChIJq4ramoEYei4Rhg8CG-8bh_E?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Ayam Panggang Dian Rahma Karanganyar</t>
-  </si>
-  <si>
-    <t>08.00-17.00</t>
-  </si>
-  <si>
-    <t>Ayam Panggang, Ayam Bakar</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Telaga+Rindu+Resto+Karanganyar/data=!4m7!3m6!1s0x2e7a228732654ce7:0xd0b9b5ffee827a3b!8m2!3d-7.6079528!4d110.9485238!16s%2Fg%2F11dfj9zdrh!19sChIJ50xlMociei4RO3qC7v-1udA?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Telaga Rindu Resto Karanganyar</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>09.15-21.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nila Goreng, Ayam, Gurame Asam Manis </t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Harjospace+RESTO+and+COFFEE/data=!4m7!3m6!1s0x2e7a19351f325707:0xd44259f1472796b0!8m2!3d-7.5913434!4d110.9338076!16s%2Fg%2F11qsdb8wpw!19sChIJB1cyHzUZei4RsJYnR_FZQtQ?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Harjospace RESTO and COFFEE</t>
-  </si>
-  <si>
-    <t>10.00-23.00</t>
-  </si>
-  <si>
-    <t>Coffe, Snack, Western, Nusantara</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Kopi+Oemah+Tentrem/data=!4m7!3m6!1s0x2e7a19f075e85feb:0x8ada1b8374679c8f!8m2!3d-7.5955001!4d110.9645195!16s%2Fg%2F11fs__bs_n!19sChIJ61_odfAZei4Rj5xndIMb2oo?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Kopi Oemah Tentrem</t>
-  </si>
-  <si>
-    <t>16.00-23.00, Selasa Tutup</t>
-  </si>
-  <si>
-    <t>Wedang Uwuh, Coffe, Snack,</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Ayam+%26+Bebek+Goreng+Mas+Anto/data=!4m7!3m6!1s0x2e7a19344c517611:0xafb28ad23da0d9b8!8m2!3d-7.590904!4d110.9323854!16s%2Fg%2F11syx1jc7n!19sChIJEXZRTDQZei4RuNmgPdKKsq8?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Ayam &amp; Bebek Goreng Mas Anto</t>
-  </si>
-  <si>
-    <t>10.30-20.30</t>
-  </si>
-  <si>
-    <t>Ayam Goreng Kremes, Bebek Goreng</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Rica+Menthok+Pak+Man+dan+Sambal+Belut/data=!4m7!3m6!1s0x2e7a19e7d55812b7:0x4ba514c790eb95e1!8m2!3d-7.5964154!4d110.9355963!16s%2Fg%2F11sdxh98db!19sChIJtxJY1ecZei4R4ZXrkMcUpUs?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Rica Menthok Pak Man dan Sambal Belut</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Hick+Gaul+Pak+Mul/data=!4m7!3m6!1s0x2e7a220c7949eed3:0xd69d1a88f224494f!8m2!3d-7.6066128!4d110.9778958!16s%2Fg%2F11b6xl1yp2!19sChIJ0-5JeQwiei4RT0kk8ogandY?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Hick Gaul Pak Mul</t>
-  </si>
-  <si>
-    <t>Angkringan, Masakan Jawa, Soto, Kare</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Rumah+Makan+Dayak/data=!4m7!3m6!1s0x2e7a187c8510b64b:0xe36ac4991042c2b5!8m2!3d-7.594639!4d110.945216!16s%2Fg%2F11cmtsl8d3!19sChIJS7YQhXwYei4RtcJCEJnEauM?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Rumah Makan Dayak</t>
-  </si>
-  <si>
-    <t>08.00-17.00, Minggu 08.00-16.00</t>
-  </si>
-  <si>
-    <t>Kare, Soto, Pecel</t>
-  </si>
-  <si>
-    <t>Tahu Kupat</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/WARUNG+TAHU+KUPAT+%22SIDO+MAMPIR%22/data=!4m7!3m6!1s0x2e7a187b7c428467:0x74cc4a5c36cd384c!8m2!3d-7.5948467!4d110.9444723!16s%2Fg%2F11b6x7czj9!19sChIJZ4RCfHsYei4RTDjNNlxKzHQ?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>WARUNG TAHU KUPAT "SIDO MAMPIR"</t>
-  </si>
-  <si>
-    <t>07.00-16.00</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Sate+Kambing+Muda+Barokah/data=!4m7!3m6!1s0x2e7a220b1a13b32b:0x194ff60003a16bc6!8m2!3d-7.604454!4d110.976488!16s%2Fg%2F11b6wskzqm!19sChIJK7MTGgsiei4RxmuhAwD2Txk?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Sate Kambing Muda Barokah</t>
-  </si>
-  <si>
-    <t>Sate Kambing, Tengkleng, Gulai</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Omah+Sendang+IBC/data=!4m7!3m6!1s0x2e7a190748172e05:0xb0042b516a5fd60e!8m2!3d-7.593311!4d110.9283331!16s%2Fg%2F11j909vmlt!19sChIJBS4XSAcZei4RDtZfalErBLA?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Omah Sendang IBC</t>
-  </si>
-  <si>
-    <t>10.00-21.00</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Angkringan+eNHa/data=!4m7!3m6!1s0x2e7a199f94f85ddf:0x42317cf47932f1fa!8m2!3d-7.6006092!4d110.9625921!16s%2Fg%2F11q22n9g9p!19sChIJ3134lJ8Zei4R-vEyefR8MUI?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Angkringan eNHa</t>
-  </si>
-  <si>
-    <t>08:00-23:30</t>
-  </si>
-  <si>
-    <t>Angkringan, Nasi Goreng, Nasi Langgi, Snack</t>
-  </si>
-  <si>
-    <t>Mie Ayam, Bakso</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Seblak+BESTie+karanganyar/data=!4m7!3m6!1s0x2e7a19ec0b6b9aad:0x87110bc6a87691e2!8m2!3d-7.5961254!4d110.9376784!16s%2Fg%2F11lnlfqq9j!19sChIJrZprC-wZei4R4pF2qMYLEYc?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Seblak BESTie karanganyar</t>
-  </si>
-  <si>
-    <t>Seblak</t>
-  </si>
-  <si>
-    <t>12.00-21.00</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Bakso+Inter+Milan/data=!4m7!3m6!1s0x2e7a220b3bd193c1:0xd96e52dec8cee414!8m2!3d-7.6048749!4d110.9755549!16s%2Fg%2F1hm26hwk2!19sChIJwZPROwsiei4RFOTOyN5Sbtk?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Bakso Inter Milan</t>
-  </si>
-  <si>
-    <t>Kakap Bakar, Capcay, Nila Goreng</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Ayam+Kampung+Goreng+Mbah+Karto+TEMBEL+3/data=!4m7!3m6!1s0x2e7a220c7e4978b7:0x4682fd3cc8c70919!8m2!3d-7.6067279!4d110.9772144!16s%2Fg%2F11cnwjyvml!19sChIJt3hJfgwiei4RGQnHyDz9gkY?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Ayam Kampung Goreng Mbah Karto TEMBEL 3</t>
-  </si>
-  <si>
-    <t>08.00-19.00</t>
-  </si>
-  <si>
-    <t>Alamat</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Ulasan</t>
-  </si>
-  <si>
-    <t>Gambar</t>
-  </si>
-  <si>
-    <t>soto_karang.jpg</t>
-  </si>
-  <si>
-    <t>pak_pur.jpg</t>
-  </si>
-  <si>
-    <t>Nama_Tempat</t>
-  </si>
-  <si>
-    <t>Menu_Spesial</t>
-  </si>
-  <si>
-    <t>Jam_Buka</t>
-  </si>
-  <si>
-    <t>Timlo, Babat Gongso, Sop Iga, Masakan Jawa, Selat Galantine</t>
-  </si>
-  <si>
-    <t>Sop Iga, Iga Bakar, Gurame Asam Manis, Wedang Uwuh</t>
-  </si>
-  <si>
-    <t>purnama.jpg</t>
-  </si>
-  <si>
-    <t>maf.jpg</t>
-  </si>
-  <si>
-    <t>jamus.jpg</t>
-  </si>
-  <si>
-    <t>abg.jpg</t>
-  </si>
-  <si>
-    <t>green.jpg</t>
-  </si>
-  <si>
-    <t>telaga.jpg</t>
-  </si>
-  <si>
-    <t>solo_steak.jpg</t>
-  </si>
-  <si>
-    <t>ss.jpg</t>
-  </si>
-  <si>
-    <t>sfa.jpg</t>
-  </si>
-  <si>
-    <t>dian.jpg</t>
-  </si>
-  <si>
-    <t>dayak.jpg</t>
-  </si>
-  <si>
-    <t>kupat.jpg</t>
-  </si>
-  <si>
-    <t>harjo.jpg</t>
-  </si>
-  <si>
-    <t>oemah.jpg</t>
-  </si>
-  <si>
-    <t>bebek.jpg</t>
-  </si>
-  <si>
-    <t>man.jpg</t>
-  </si>
-  <si>
-    <t>seblak.jpg</t>
-  </si>
-  <si>
-    <t>dwi.jpg</t>
-  </si>
-  <si>
-    <t>gaul.jpg</t>
-  </si>
-  <si>
-    <t>ibc.jpg</t>
-  </si>
-  <si>
-    <t>barokah.jpg</t>
-  </si>
-  <si>
-    <t>enha.jpg</t>
-  </si>
-  <si>
-    <t>milan.jpg</t>
-  </si>
-  <si>
-    <t>tembel.jpg</t>
-  </si>
-  <si>
-    <t>warung_idjo.jpg</t>
-  </si>
-  <si>
-    <t>timlo.jpg</t>
-  </si>
-  <si>
-    <t>rm_indah.jpg</t>
-  </si>
-  <si>
-    <t>bu_medi.jpg</t>
-  </si>
-  <si>
-    <t>VinZ Coffee &amp; Eatery</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/VinZ+Coffee+%26+Eatery/data=!4m7!3m6!1s0x2e7a194c01b444b3:0xf3ad77137dfd00b4!8m2!3d-7.5922372!4d110.9371119!16s%2Fg%2F11y7ctndwr!19sChIJs0S0AUwZei4RtAD9fRN3rfM?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>vinz.jpg</t>
-  </si>
-  <si>
-    <t>Duor Coffee</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Duor+Coffee/data=!4m7!3m6!1s0x2e7a199cecb67f4d:0x6b2c48cce9c7c574!8m2!3d-7.5926169!4d110.9366266!16s%2Fg%2F11stwymcqp!19sChIJTX-27JwZei4RdMXH6cxILGs?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Chicken Salted Egg, Kopi Susu</t>
-  </si>
-  <si>
-    <t>07.00-00.00</t>
-  </si>
-  <si>
-    <t>duor.jpg</t>
-  </si>
-  <si>
-    <t>Pawon Ayu Resto Karanganyar</t>
-  </si>
-  <si>
-    <t>Bebek Goreng , Ayam Goreng Kampung</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Pawon+Ayu+Resto+Karanganyar/data=!4m7!3m6!1s0x2e7a19abd1e2cc7f:0x7959717634a36e04!8m2!3d-7.5910894!4d110.9315411!16s%2Fg%2F11lc9wr7_2!19sChIJf8zi0asZei4RBG6jNHZxWXk?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>10.00-21.30</t>
-  </si>
-  <si>
-    <t>pawon.jpg</t>
-  </si>
-  <si>
-    <t>RESTO BALI PARI</t>
-  </si>
-  <si>
-    <t>Kepala Sapi, Ikan Bakar, Wedang Jahe</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/RESTO+BALI+PARI/data=!4m7!3m6!1s0x2e7a1936a5495239:0x60b4567231c66917!8m2!3d-7.5931964!4d110.9655372!16s%2Fg%2F11sjlnv38w!19sChIJOVJJpTYZei4RF2nGMXJWtGA?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>pari.jpg</t>
-  </si>
-  <si>
-    <t>Rumah MAKAN Apung SURAMADU 2</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Rumah+MAKAN+Apung+SURAMADU+2/data=!4m7!3m6!1s0x2e7a237096fe960d:0x29a441188b7cd921!8m2!3d-7.6088352!4d110.9841741!16s%2Fg%2F11krcbz61w!19sChIJDZb-lnAjei4RIdl8ixhBpCk?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>09.30-21.00</t>
-  </si>
-  <si>
-    <t>apung.jpg</t>
-  </si>
-  <si>
-    <t>Bebek Bumbu Hitam, Gurame Asam Manis, Bebek Goreng</t>
-  </si>
-  <si>
-    <t>de Goedang Resto &amp; Coffee</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/de+Goedang+Resto+%26+Coffee/data=!4m7!3m6!1s0x2e7a235feab21c31:0xa23b452a5492360d!8m2!3d-7.608078!4d110.9808443!16s%2Fg%2F11pf97zbqc!19sChIJMRyy6l8jei4RDTaSVCpFO6I?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>11.00-21.00</t>
-  </si>
-  <si>
-    <t>Kepala Manyu, Kopi Susu, Kepala Sapi, Sop Iga</t>
-  </si>
-  <si>
-    <t>Ayam Goreng Mbak Mul</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Ayam+Goreng+Mbak+Mul/data=!4m7!3m6!1s0x2e7a23268c9ecdf3:0x21d917b1bd5e0f9a!8m2!3d-7.6078815!4d110.9813933!16s%2Fg%2F11h2jpndb7!19sChIJ882ejCYjei4Rmg9evbEX2SE?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>mul.jpg</t>
-  </si>
-  <si>
-    <t>08.00-20.00</t>
-  </si>
-  <si>
-    <t>Kampoeng Seafood Bejen</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Kampoeng+Seafood+Bejen/data=!4m7!3m6!1s0x2e7a230055ccea67:0xf1f468e0d62822e!8m2!3d-7.6026216!4d110.9690199!16s%2Fg%2F11lmkc23pp!19sChIJZ-rMVQAjei4RLoJiDY5GHw8?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>11.00-23.00</t>
-  </si>
-  <si>
-    <t>kampoeng.jpg</t>
-  </si>
-  <si>
-    <t>Gurame Asam Manis, Kepiting Saus Tiram, Cumi Saus Padang, Kerang Saus Padang</t>
-  </si>
-  <si>
-    <t>Me BESARi</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Me+BESARi/data=!4m7!3m6!1s0x2e7a195e09d44025:0x3187ac5b6454271e!8m2!3d-7.595878!4d110.971625!16s%2Fg%2F11k9fj2q1y!19sChIJJUDUCV4Zei4RHidUZFushzE?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>09.00-21.30</t>
-  </si>
-  <si>
-    <t>besari.jpg</t>
-  </si>
-  <si>
-    <t>Mie Gacoan Karanganyar</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mie+Gacoan+Karanganyar/data=!4m7!3m6!1s0x2e7a19003ada65d5:0x6627e031e1063eae!8m2!3d-7.6009341!4d110.9636806!16s%2Fg%2F11x22xc20w!19sChIJ1WXaOgAZei4Rrj4G4THgJ2Y?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>08.00-23.00</t>
-  </si>
-  <si>
-    <t>Mie Pedas</t>
-  </si>
-  <si>
-    <t>gacoan.jpg</t>
-  </si>
-  <si>
-    <t>AMMANEENA Coffee, Eatery &amp; Catering</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/AMMANEENA+Coffee,+Eatery+%26+Catering/data=!4m7!3m6!1s0x2e7a190c0471773f:0x376f9e8413faaa!8m2!3d-7.5926643!4d110.9382523!16s%2Fg%2F11vc73z3q1!19sChIJP3dxBAwZei4RqvoThJ5vNwA?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasi Goreng Kambing, Steak </t>
-  </si>
-  <si>
-    <t>ammaneena.jpg</t>
-  </si>
-  <si>
-    <t>Heika Kopi Karanganyar</t>
-  </si>
-  <si>
-    <t>Lenskopi karanganyar</t>
-  </si>
-  <si>
-    <t>Kopi Susu, Nasi Katsu</t>
-  </si>
-  <si>
-    <t>Kopi Klasik</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Lenskopi+karanganyar/data=!4m7!3m6!1s0x2e7a191b1746023f:0xd1ebec432d2303da!8m2!3d-7.5962664!4d110.9834795!16s%2Fg%2F11nmlhm31p!19sChIJPwJGFxsZei4R2gMjLUPs69E?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Heika+Kopi+Karanganyar/data=!4m7!3m6!1s0x2e7a19501c10b3f3:0x7adb6a14603c5bcb!8m2!3d-7.5967514!4d110.9423211!16s%2Fg%2F11lgmvn1kg!19sChIJ87MQHFAZei4Ry1s8YBRq23o?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>10.00-23.00. Jum'at dan Sabtu 10.00-00.00</t>
-  </si>
-  <si>
-    <t>heika.jpg</t>
-  </si>
-  <si>
-    <t>lenskopi.jpg</t>
-  </si>
-  <si>
-    <t>FruitHub Juice Bar</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/FruitHub+Juice+Bar/data=!4m7!3m6!1s0x2e7a19b82a145af3:0x93bb46df42ccb9f!8m2!3d-7.5980822!4d110.9460832!16s%2Fg%2F11s7s411gq!19sChIJ81oUKrgZei4Rn8ss9G20Owk?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Jus Buah, Salad Buah, Salad Wrap</t>
-  </si>
-  <si>
-    <t>fruithub.jpg</t>
-  </si>
-  <si>
-    <t>Bakso Bonjot Mas Larso</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Bakso+Bonjot+Mas+Larso/data=!4m7!3m6!1s0x2e7a1865551cd981:0x69b98a608100ff0c!8m2!3d-7.5928487!4d110.9386204!16s%2Fg%2F1hm4649kd!19sChIJgdkcVWUYei4RDP8AgWCKuWk?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>bonjot.jpg</t>
-  </si>
-  <si>
-    <t>Bakso, Mie Ayam, Es Buah</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Umayumcha+Karanganyar/data=!4m7!3m6!1s0x2e7a1916356cf291:0x32a291b9c9ed5b05!8m2!3d-7.5947916!4d110.9411152!16s%2Fg%2F11m46p3dbw!19sChIJkfJsNRYZei4RBVvtybmRojI?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Warung Soto &amp; Kare Ayam DPR</t>
-  </si>
-  <si>
-    <t>Kare, Soto</t>
-  </si>
-  <si>
-    <t>16.00-20.30. Minggu Tutup</t>
-  </si>
-  <si>
-    <t>kare.jpg</t>
-  </si>
-  <si>
-    <t>Gentong Resto &amp; Steak Karanganyar</t>
-  </si>
-  <si>
-    <t>Ikan Nila Bakar, Ayam Goreng Kremes</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Gentong+Resto+%26+Steak+Karanganyar/data=!4m7!3m6!1s0x2e7a235a02eefb85:0x23922b4de13eade6!8m2!3d-7.6031559!4d110.9781582!16s%2Fg%2F11p5z7hzbb!19sChIJhfvuAlojei4R5q0-4U0rkiM?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>gentong.jpg</t>
-  </si>
-  <si>
-    <t>RM Ayam Tulang Lunak Mbak Betri</t>
-  </si>
-  <si>
-    <t>Ayam Goreng Tulang Lunak</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/RM+Ayam+Tulang+Lunak+Mbak+Betri/data=!4m7!3m6!1s0x2e7a1878e148419d:0xdbd8c99edc388a27!8m2!3d-7.6006775!4d110.9429234!16s%2Fg%2F11cjk3tyk1!19sChIJnUFI4XgYei4RJ4o43J7J2Ns?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>betri.jpg</t>
-  </si>
-  <si>
-    <t>Aneka Sambal, Masakan Nusantara</t>
-  </si>
-  <si>
-    <t>Kebon Lawuh</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Kebon+Lawuh/data=!4m7!3m6!1s0x2e7a1922bf0655f5:0x4ef708066e08060e!8m2!3d-7.6022742!4d110.9667169!16s%2Fg%2F11p_2ddzdy!19sChIJ9VUGvyIZei4RDgYIbgYI904?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Kopi Janji Jiwa Jilid 635 Karanganyar</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Kopi+Janji+Jiwa+Jilid+635+Karanganyar/data=!4m7!3m6!1s0x2e7a19667e234d73:0x22b40635ab2b4b9c!8m2!3d-7.5984438!4d110.9492198!16s%2Fg%2F11k6qzkwsw!19sChIJc00jfmYZei4RnEsrqzUGtCI?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>kebon.jpg</t>
-  </si>
-  <si>
-    <t>goeda.jpg</t>
-  </si>
-  <si>
-    <t>jani.jpg</t>
-  </si>
-  <si>
-    <t>Ikan Nila Bakar</t>
-  </si>
-  <si>
-    <t>Ayam Goreng Kampung, Ayam Goreng</t>
-  </si>
-  <si>
-    <t>Chicken Butter Milk, Chicken Mushroom, Caramel Cookies Srumble</t>
-  </si>
-  <si>
-    <t>Ayam Goreng Kampung</t>
   </si>
 </sst>
 </file>
@@ -824,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -832,6 +976,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,16 +1462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C42F94-4C97-4592-88AC-44A7379BF874}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -1338,25 +1485,25 @@
         <v>No</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -1369,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>928</v>
@@ -1384,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -1397,10 +1544,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>1039</v>
@@ -1412,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1422,25 +1569,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>369</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1450,25 +1597,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>1027</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1478,25 +1625,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>258</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1506,23 +1653,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>103</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1532,25 +1679,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>788</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1560,25 +1707,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1">
         <v>626</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -1588,25 +1735,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -1616,25 +1763,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2">
         <v>1138</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -1644,25 +1791,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2">
         <v>2875</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1672,25 +1819,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2">
         <v>3403</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1700,25 +1847,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1">
         <v>861</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1728,25 +1875,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2">
         <v>8100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -1756,25 +1903,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1">
         <v>860</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -1784,25 +1931,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2">
         <v>2839</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1812,25 +1959,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>283</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1">
         <v>525</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -1840,25 +1987,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1">
         <v>365</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -1868,25 +2015,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
         <v>686</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -1896,25 +2043,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
         <v>133</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -1924,25 +2071,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2">
         <v>1356</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -1952,25 +2099,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2">
         <v>3719</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -1980,25 +2127,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1">
         <v>313</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -2008,25 +2155,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
         <v>122</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -2036,25 +2183,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1">
-        <v>286</v>
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1145</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -2064,25 +2211,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1">
         <v>702</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -2092,25 +2239,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1">
         <v>673</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -2120,25 +2267,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1">
         <v>748</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -2148,25 +2295,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2">
         <v>1202</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -2175,25 +2322,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3">
         <v>408</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -2202,51 +2349,51 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="5">
-        <v>4.7</v>
+        <v>281</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E32" s="1">
         <v>403</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="5">
-        <v>4.4000000000000004</v>
+        <v>236</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33">
         <v>166</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2254,25 +2401,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="5">
-        <v>4.7</v>
+        <v>147</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E34">
         <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2280,25 +2427,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="5">
-        <v>4.3</v>
+        <v>282</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E35">
         <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2306,25 +2453,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="5">
-        <v>4.3</v>
+        <v>288</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E36">
         <v>372</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2332,25 +2479,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="5">
-        <v>4.3</v>
+        <v>161</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E37">
         <v>339</v>
       </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2358,25 +2505,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" s="5">
-        <v>4.5999999999999996</v>
+        <v>216</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="E38" s="4">
         <v>2104</v>
       </c>
       <c r="F38" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2384,51 +2531,51 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="5">
-        <v>4.5999999999999996</v>
+        <v>170</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="E39">
         <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="5">
-        <v>4.4000000000000004</v>
+        <v>178</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E40" s="4">
         <v>1016</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2436,25 +2583,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="5">
-        <v>4.8</v>
+        <v>178</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="E41" s="4">
         <v>2383</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2462,25 +2609,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="5">
-        <v>4.7</v>
+        <v>280</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E42">
         <v>330</v>
       </c>
       <c r="F42" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2488,25 +2635,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="5">
-        <v>4.5</v>
+        <v>235</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E43">
         <v>797</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2514,25 +2661,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="5">
-        <v>4.5999999999999996</v>
+        <v>237</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="E44">
         <v>193</v>
       </c>
       <c r="F44" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2540,25 +2687,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" s="5">
-        <v>4.7</v>
+        <v>192</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E45">
         <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2566,25 +2713,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="5">
-        <v>4.3</v>
+        <v>286</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E46" s="4">
         <v>1547</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2592,51 +2739,51 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3.9</v>
+        <v>198</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>121</v>
+        <v>358</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48" s="5">
-        <v>4.4000000000000004</v>
+        <v>245</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48">
         <v>193</v>
       </c>
       <c r="F48" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2644,25 +2791,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="5">
-        <v>4.5</v>
+        <v>205</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E49">
         <v>188</v>
       </c>
       <c r="F49" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2670,25 +2817,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D50" s="5">
-        <v>4.2</v>
+        <v>246</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E50">
         <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2696,25 +2843,285 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="5">
-        <v>4.7</v>
+        <v>237</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E51">
         <v>258</v>
       </c>
       <c r="F51" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="6">
+        <v>694</v>
+      </c>
+      <c r="F52" t="s">
+        <v>217</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53">
+        <v>206</v>
+      </c>
+      <c r="F53" t="s">
+        <v>221</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54">
+        <v>247</v>
+      </c>
+      <c r="F54" t="s">
+        <v>227</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>217</v>
+      </c>
+      <c r="F55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>237</v>
+      <c r="H55" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56">
+        <v>127</v>
+      </c>
+      <c r="F56" t="s">
+        <v>249</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57">
+        <v>128</v>
+      </c>
+      <c r="F57" t="s">
+        <v>257</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>245</v>
+      </c>
+      <c r="F58" t="s">
+        <v>262</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59">
+        <v>115</v>
+      </c>
+      <c r="F59" t="s">
+        <v>269</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>278</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>62</v>
+      </c>
+      <c r="F60" t="s">
+        <v>279</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>203</v>
+      </c>
+      <c r="F61" t="s">
+        <v>276</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/kec.kra kuliner.xlsx
+++ b/data/kec.kra kuliner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1F0CAD-0627-427B-AE32-5EDCA17E3F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FF9D30-DF69-4095-A670-D783B5AABBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EDF38F25-C305-4850-8566-E632A20AB8E2}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7785" xr2:uid="{EDF38F25-C305-4850-8566-E632A20AB8E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="280">
   <si>
     <t>https://www.google.com/maps/place/Soto+Karang+%28Kuliner+Khas+Karanganyar%29/data=!4m7!3m6!1s0x2e7a187ac849d685:0x7b82a8a19ecd9dd2!8m2!3d-7.593423!4d110.940326!16s%2Fg%2F11c3kqhhml!19sChIJhdZJyHoYei4R0p3NnqGogns?authuser=0&amp;hl=id&amp;rclk=1</t>
   </si>
@@ -60,21 +60,12 @@
     <t>Masakan Jawa</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/place/RM.+TIMLO+BU+AGUNG+KARANGANYAR/data=!4m7!3m6!1s0x2e7a19243eaf250d:0xfd22649e63c58cac!8m2!3d-7.5942719!4d110.9427701!16s%2Fg%2F11qmrphy_4!19sChIJDSWvPiQZei4RrIzFY55kIv0?authuser=0&amp;hl=id&amp;rclk=1</t>
   </si>
   <si>
     <t>RM. TIMLO BU AGUNG KARANGANYAR</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>06:00-21:00</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>RM Indah Karanganyar</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/place/RM+Lesehan+Mbak+Dwi/data=!4m7!3m6!1s0x2e7a186fd216c309:0x4b1c38d2c3e2e2c4!8m2!3d-7.5924982!4d110.9360858!16s%2Fg%2F1pyd23w9x!19sChIJCcMW0m8Yei4RxOLiw9I4HEs?authuser=0&amp;hl=id&amp;rclk=1</t>
   </si>
   <si>
@@ -150,9 +138,6 @@
     <t>ABG Bumes Karanganyar</t>
   </si>
   <si>
-    <t>4.1</t>
-  </si>
-  <si>
     <t>09.00-22.00</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>Solo Steak Karanganyar " 3 "</t>
   </si>
   <si>
-    <t>4.7</t>
-  </si>
-  <si>
     <t>10.00-22.00</t>
   </si>
   <si>
@@ -216,9 +198,6 @@
     <t>Telaga Rindu Resto Karanganyar</t>
   </si>
   <si>
-    <t>3.9</t>
-  </si>
-  <si>
     <t>09.15-21.00</t>
   </si>
   <si>
@@ -282,15 +261,6 @@
     <t>Tahu Kupat</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/WARUNG+TAHU+KUPAT+%22SIDO+MAMPIR%22/data=!4m7!3m6!1s0x2e7a187b7c428467:0x74cc4a5c36cd384c!8m2!3d-7.5948467!4d110.9444723!16s%2Fg%2F11b6x7czj9!19sChIJZ4RCfHsYei4RTDjNNlxKzHQ?authuser=0&amp;hl=id&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>WARUNG TAHU KUPAT "SIDO MAMPIR"</t>
-  </si>
-  <si>
-    <t>07.00-16.00</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/place/Omah+Sendang+IBC/data=!4m7!3m6!1s0x2e7a190748172e05:0xb0042b516a5fd60e!8m2!3d-7.593311!4d110.9283331!16s%2Fg%2F11j909vmlt!19sChIJBS4XSAcZei4RDtZfalErBLA?authuser=0&amp;hl=id&amp;rclk=1</t>
   </si>
   <si>
@@ -756,12 +726,6 @@
     <t>Sate Kambing Barokah</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/place/Sate+Kambing+Barokah/data=!4m7!3m6!1s0x2e7a2286354c0dc1:0x61cda530a67f8b3a!8m2!3d-7.6115035!4d110.9474304!16s%2Fg%2F11c1s_6stw!19sChIJwQ1MNYYiei4ROot_pjClzWE?authuser=0&amp;hl=id&amp;rclk=1</t>
   </si>
   <si>
@@ -807,9 +771,6 @@
     <t>Seblak Jaen</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/place/Seblak+Jaen/data=!4m7!3m6!1s0x2e7a19004c367257:0xa9b3a99cba90e97d!8m2!3d-7.5994612!4d110.9435426!16s%2Fg%2F11y4lrblr5!19sChIJV3I2TAAZei4RfemQupyps6k?authuser=0&amp;hl=id&amp;rclk=1</t>
   </si>
   <si>
@@ -888,9 +849,6 @@
     <t>Kepala Sapi, Wedang Jahe, Nasi Goreng</t>
   </si>
   <si>
-    <t>Nasi Goreng, Iga Bakar, Western, Masakan Nusantara</t>
-  </si>
-  <si>
     <t>budi.jpg</t>
   </si>
   <si>
@@ -907,12 +865,27 @@
   </si>
   <si>
     <t>Ayam Goreng Kremes, Masakan Jawa</t>
+  </si>
+  <si>
+    <t>Tahu Kupat Sido Mampir DPRD</t>
+  </si>
+  <si>
+    <t>07.00-17.00</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Tahu+Kupat+Sido+Mampir+DPRD/data=!4m7!3m6!1s0x2e7a19c6b69debff:0xfc1a8ba7bd3027bc!8m2!3d-7.598003!4d110.957971!16s%2Fg%2F11hdqwk1vn!19sChIJ_-udtsYZei4RvCcwvaeLGvw?authuser=0&amp;hl=id&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Nasi Goreng, Iga Bakar, Western, Masakan Nusantara, Chinese Food</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -968,16 +941,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1464,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C42F94-4C97-4592-88AC-44A7379BF874}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,25 +1464,25 @@
         <v>No</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -1516,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>928</v>
+        <v>235</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>900</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -1531,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -1546,11 +1525,11 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1039</v>
+      <c r="D3" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>600</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -1559,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1569,25 +1548,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>369</v>
+      <c r="D4" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1000</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1597,25 +1576,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2">
-        <v>1027</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1625,25 +1604,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>258</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1653,23 +1632,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1">
-        <v>103</v>
+        <v>252</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1679,25 +1658,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E8" s="4">
         <v>788</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1707,25 +1686,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>626</v>
+        <v>251</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E9" s="4">
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -1735,25 +1714,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="4">
         <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>113</v>
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -1763,25 +1742,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2">
+        <v>275</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E11" s="5">
         <v>1138</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -1791,25 +1770,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2875</v>
+        <v>214</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1819,25 +1798,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3403</v>
+        <v>198</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E13" s="5">
+        <v>7000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1847,25 +1826,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1">
-        <v>861</v>
+        <v>254</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E14" s="4">
+        <v>200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1875,25 +1854,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2">
-        <v>8100</v>
+        <v>215</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -1903,25 +1882,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E16" s="4">
         <v>860</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>120</v>
+        <v>49</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -1931,25 +1910,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="2">
+        <v>273</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="E17" s="5">
         <v>2839</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>116</v>
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1959,25 +1938,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1">
-        <v>525</v>
+        <v>279</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>123</v>
+        <v>56</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -1987,25 +1966,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1">
+        <v>232</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E19" s="4">
         <v>365</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>124</v>
+        <v>59</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -2015,25 +1994,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1">
-        <v>686</v>
+        <v>63</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5000</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>125</v>
+        <v>62</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -2043,25 +2022,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1">
-        <v>133</v>
+        <v>29</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>126</v>
+        <v>42</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -2071,25 +2050,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1356</v>
+        <v>87</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>900</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -2099,25 +2078,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2">
+        <v>68</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E23" s="5">
         <v>3719</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -2127,25 +2106,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
+        <v>72</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E24" s="4">
         <v>313</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -2155,25 +2134,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1">
-        <v>122</v>
+        <v>73</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="E25" s="4">
+        <v>400</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -2183,25 +2162,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1145</v>
+        <v>231</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E26" s="5">
+        <v>900</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -2211,25 +2190,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1">
-        <v>702</v>
+        <v>100</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E27" s="4">
+        <v>700</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -2238,26 +2217,26 @@
         <f>[1]Worksheet!A29</f>
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>88</v>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="1">
+        <v>242</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E28" s="4">
         <v>673</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>87</v>
+      <c r="F28" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -2267,25 +2246,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="1">
+        <v>80</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E29" s="4">
         <v>748</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>133</v>
+        <v>42</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -2295,25 +2274,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2">
+        <v>83</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E30" s="5">
         <v>1202</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>127</v>
+        <v>84</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -2321,26 +2300,26 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3">
-        <v>408</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>100</v>
+      <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="E31" s="6">
+        <v>400</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -2349,51 +2328,51 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1">
-        <v>403</v>
+        <v>268</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E32" s="4">
+        <v>400</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>166</v>
+        <v>226</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E33" s="7">
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2401,25 +2380,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34">
+        <v>137</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E34" s="7">
         <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35">
+        <v>269</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E35" s="7">
         <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2453,25 +2432,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36">
+        <v>274</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E36" s="7">
         <v>372</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2479,25 +2458,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37">
-        <v>339</v>
+        <v>151</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E37" s="7">
+        <v>300</v>
       </c>
       <c r="F37" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2505,25 +2484,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2104</v>
+        <v>206</v>
+      </c>
+      <c r="D38" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="E38" s="9">
+        <v>800</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2531,51 +2510,51 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E39">
-        <v>84</v>
+        <v>160</v>
+      </c>
+      <c r="D39" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E39" s="7">
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1016</v>
+        <v>168</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E40" s="9">
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2583,25 +2562,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E41" s="4">
-        <v>2383</v>
+        <v>168</v>
+      </c>
+      <c r="D41" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="E41" s="9">
+        <v>500</v>
       </c>
       <c r="F41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2609,25 +2588,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42">
-        <v>330</v>
+        <v>267</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5</v>
+      </c>
+      <c r="E42" s="7">
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2635,25 +2614,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43">
-        <v>797</v>
+        <v>225</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7">
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2661,25 +2640,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E44">
-        <v>193</v>
+        <v>227</v>
+      </c>
+      <c r="D44" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E44" s="7">
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2687,25 +2666,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45">
-        <v>152</v>
+        <v>182</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="E45" s="7">
+        <v>500</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2713,25 +2692,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1547</v>
+        <v>272</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1000</v>
       </c>
       <c r="F46" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2739,51 +2718,51 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47">
+        <v>188</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E47" s="7">
         <v>358</v>
       </c>
       <c r="F47" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48">
+        <v>233</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="E48" s="7">
+        <v>300</v>
+      </c>
+      <c r="F48" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F48" t="s">
-        <v>202</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2791,25 +2770,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49">
-        <v>188</v>
+        <v>195</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E49" s="7">
+        <v>400</v>
       </c>
       <c r="F49" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2817,25 +2796,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>182</v>
+        <v>234</v>
+      </c>
+      <c r="D50" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E50" s="7">
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2843,51 +2822,51 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51">
-        <v>258</v>
+        <v>227</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>2000</v>
       </c>
       <c r="F51" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="6">
-        <v>694</v>
+        <v>253</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E52" s="10">
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2895,25 +2874,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E53">
+        <v>83</v>
+      </c>
+      <c r="D53" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E53" s="7">
         <v>206</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2921,51 +2900,51 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54">
+        <v>240</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E54" s="7">
         <v>247</v>
       </c>
       <c r="F54" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55">
-        <v>217</v>
+        <v>222</v>
+      </c>
+      <c r="D55" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1000</v>
       </c>
       <c r="F55" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2973,25 +2952,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56">
-        <v>127</v>
+        <v>168</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E56" s="7">
+        <v>400</v>
       </c>
       <c r="F56" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2999,25 +2978,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E57">
-        <v>128</v>
+        <v>83</v>
+      </c>
+      <c r="D57" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="E57" s="7">
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3025,25 +3004,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58">
+        <v>247</v>
+      </c>
+      <c r="D58" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E58" s="7">
         <v>245</v>
       </c>
       <c r="F58" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3051,25 +3030,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59">
+        <v>258</v>
+      </c>
+      <c r="D59" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E59" s="7">
         <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3077,25 +3056,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60">
+        <v>259</v>
+      </c>
+      <c r="D60" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E60" s="7">
         <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3103,25 +3082,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61">
+        <v>264</v>
+      </c>
+      <c r="D61" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E61" s="7">
         <v>203</v>
       </c>
       <c r="F61" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
